--- a/개발 일정.xlsx
+++ b/개발 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5DDF298-F53E-40E5-8A20-57E95C65983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC0719B-0CBF-4DD9-93FD-667FD3AE5ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0362656D-964D-4B73-A9E3-90AC982FC863}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>3월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,33 @@
   </si>
   <si>
     <t>마을 시스템 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 시스템 추가
+(카드 혹은 캐릭터 강화 방식 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 테이블 구성
+(마을 시스템에서 쓰는 테이블 구조 및 내용 구성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 시스템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 및 던전 통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 개발 필요사항 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 데이터 추가
+(아이템 및 스킬 카드)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,12 +146,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,6 +194,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,16 +524,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2848CD7-92D6-4144-8A56-B5946E066482}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="17" width="30.625" customWidth="1"/>
+    <col min="2" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -502,7 +561,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -552,30 +611,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -587,36 +645,55 @@
         <v>16</v>
       </c>
       <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
